--- a/biology/Médecine/Plan_de_répartition_des_effectifs_médicaux/Plan_de_répartition_des_effectifs_médicaux.xlsx
+++ b/biology/Médecine/Plan_de_répartition_des_effectifs_médicaux/Plan_de_répartition_des_effectifs_médicaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan_de_r%C3%A9partition_des_effectifs_m%C3%A9dicaux</t>
+          <t>Plan_de_répartition_des_effectifs_médicaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan de répartition des effectifs médicaux (ou PREM) est la politique d'affectation des médecins au Québec par le gouvernement québécois. Par extension de langage, le terme PREM désigne aussi bien un poste de médecin disponible dans un établissement hospitalier donné ou dans un CSSS (Centre de santé et de services sociaux).
 Pour chaque spécialité et pour chaque établissement hospitalier à travers la province, un effectif médical maximal est attribué.
